--- a/data/base_info.xlsx
+++ b/data/base_info.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="126" uniqueCount="111">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="129" uniqueCount="113">
   <si>
     <t>部门</t>
   </si>
@@ -108,6 +108,12 @@
   </si>
   <si>
     <t>李火军</t>
+  </si>
+  <si>
+    <t>133</t>
+  </si>
+  <si>
+    <t>李湘岳</t>
   </si>
   <si>
     <t>湖南办事处综合部</t>
@@ -355,12 +361,12 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
-  <fonts count="22">
+  <fonts count="21">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -377,8 +383,24 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -400,8 +422,23 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -410,7 +447,61 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -422,31 +513,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -458,75 +526,6 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -537,13 +536,49 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -555,19 +590,121 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -579,145 +716,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -728,6 +727,45 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -770,26 +808,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -804,175 +827,151 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="42" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="20" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="14" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="16" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="16" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="2" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1325,10 +1324,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:C42"/>
+  <dimension ref="A1:C43"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F8" sqref="F8"/>
+      <selection activeCell="E22" sqref="E22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="2"/>
@@ -1470,117 +1469,117 @@
     </row>
     <row r="13" spans="1:3">
       <c r="A13" t="s">
+        <v>26</v>
+      </c>
+      <c r="B13" t="s">
         <v>31</v>
       </c>
-      <c r="B13" t="s">
+      <c r="C13" t="s">
         <v>32</v>
-      </c>
-      <c r="C13" t="s">
-        <v>33</v>
       </c>
     </row>
     <row r="14" spans="1:3">
       <c r="A14" t="s">
+        <v>33</v>
+      </c>
+      <c r="B14" t="s">
         <v>34</v>
       </c>
-      <c r="B14" t="s">
+      <c r="C14" t="s">
         <v>35</v>
-      </c>
-      <c r="C14" t="s">
-        <v>36</v>
       </c>
     </row>
     <row r="15" spans="1:3">
       <c r="A15" t="s">
+        <v>36</v>
+      </c>
+      <c r="B15" t="s">
         <v>37</v>
       </c>
-      <c r="B15" t="s">
+      <c r="C15" t="s">
         <v>38</v>
-      </c>
-      <c r="C15" t="s">
-        <v>39</v>
       </c>
     </row>
     <row r="16" spans="1:3">
       <c r="A16" t="s">
+        <v>39</v>
+      </c>
+      <c r="B16" t="s">
         <v>40</v>
       </c>
-      <c r="B16" t="s">
+      <c r="C16" t="s">
         <v>41</v>
-      </c>
-      <c r="C16" t="s">
-        <v>42</v>
       </c>
     </row>
     <row r="17" spans="1:3">
       <c r="A17" t="s">
+        <v>42</v>
+      </c>
+      <c r="B17" t="s">
         <v>43</v>
       </c>
-      <c r="B17" t="s">
+      <c r="C17" t="s">
         <v>44</v>
-      </c>
-      <c r="C17" t="s">
-        <v>45</v>
       </c>
     </row>
     <row r="18" spans="1:3">
       <c r="A18" t="s">
+        <v>45</v>
+      </c>
+      <c r="B18" t="s">
         <v>46</v>
       </c>
-      <c r="B18" t="s">
+      <c r="C18" t="s">
         <v>47</v>
-      </c>
-      <c r="C18" t="s">
-        <v>48</v>
       </c>
     </row>
     <row r="19" spans="1:3">
       <c r="A19" t="s">
+        <v>48</v>
+      </c>
+      <c r="B19" t="s">
         <v>49</v>
       </c>
-      <c r="B19" t="s">
+      <c r="C19" t="s">
         <v>50</v>
-      </c>
-      <c r="C19" t="s">
-        <v>51</v>
       </c>
     </row>
     <row r="20" spans="1:3">
       <c r="A20" t="s">
+        <v>51</v>
+      </c>
+      <c r="B20" t="s">
         <v>52</v>
       </c>
-      <c r="B20" t="s">
+      <c r="C20" t="s">
         <v>53</v>
-      </c>
-      <c r="C20" t="s">
-        <v>54</v>
       </c>
     </row>
     <row r="21" spans="1:3">
       <c r="A21" t="s">
+        <v>54</v>
+      </c>
+      <c r="B21" t="s">
         <v>55</v>
       </c>
-      <c r="B21" t="s">
+      <c r="C21" t="s">
         <v>56</v>
-      </c>
-      <c r="C21" t="s">
-        <v>57</v>
       </c>
     </row>
     <row r="22" spans="1:3">
       <c r="A22" t="s">
+        <v>57</v>
+      </c>
+      <c r="B22" t="s">
         <v>58</v>
       </c>
-      <c r="B22" t="s">
+      <c r="C22" t="s">
         <v>59</v>
-      </c>
-      <c r="C22" t="s">
-        <v>60</v>
       </c>
     </row>
     <row r="23" spans="1:3">
       <c r="A23" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="B23" t="s">
         <v>61</v>
@@ -1591,7 +1590,7 @@
     </row>
     <row r="24" spans="1:3">
       <c r="A24" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="B24" t="s">
         <v>63</v>
@@ -1602,18 +1601,18 @@
     </row>
     <row r="25" spans="1:3">
       <c r="A25" t="s">
+        <v>60</v>
+      </c>
+      <c r="B25" t="s">
         <v>65</v>
       </c>
-      <c r="B25" t="s">
+      <c r="C25" t="s">
         <v>66</v>
-      </c>
-      <c r="C25" t="s">
-        <v>67</v>
       </c>
     </row>
     <row r="26" spans="1:3">
       <c r="A26" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="B26" t="s">
         <v>68</v>
@@ -1624,18 +1623,18 @@
     </row>
     <row r="27" spans="1:3">
       <c r="A27" t="s">
+        <v>67</v>
+      </c>
+      <c r="B27" t="s">
         <v>70</v>
       </c>
-      <c r="B27" t="s">
+      <c r="C27" t="s">
         <v>71</v>
-      </c>
-      <c r="C27" t="s">
-        <v>72</v>
       </c>
     </row>
     <row r="28" spans="1:3">
       <c r="A28" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="B28" t="s">
         <v>73</v>
@@ -1646,7 +1645,7 @@
     </row>
     <row r="29" spans="1:3">
       <c r="A29" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="B29" t="s">
         <v>75</v>
@@ -1657,7 +1656,7 @@
     </row>
     <row r="30" spans="1:3">
       <c r="A30" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="B30" t="s">
         <v>77</v>
@@ -1668,51 +1667,51 @@
     </row>
     <row r="31" spans="1:3">
       <c r="A31" t="s">
+        <v>72</v>
+      </c>
+      <c r="B31" t="s">
         <v>79</v>
       </c>
-      <c r="B31" t="s">
+      <c r="C31" t="s">
         <v>80</v>
-      </c>
-      <c r="C31" t="s">
-        <v>81</v>
       </c>
     </row>
     <row r="32" spans="1:3">
       <c r="A32" t="s">
+        <v>81</v>
+      </c>
+      <c r="B32" t="s">
         <v>82</v>
       </c>
-      <c r="B32" t="s">
+      <c r="C32" t="s">
         <v>83</v>
-      </c>
-      <c r="C32" t="s">
-        <v>84</v>
       </c>
     </row>
     <row r="33" spans="1:3">
       <c r="A33" t="s">
+        <v>84</v>
+      </c>
+      <c r="B33" t="s">
         <v>85</v>
       </c>
-      <c r="B33" t="s">
+      <c r="C33" t="s">
         <v>86</v>
-      </c>
-      <c r="C33" t="s">
-        <v>87</v>
       </c>
     </row>
     <row r="34" spans="1:3">
       <c r="A34" t="s">
+        <v>87</v>
+      </c>
+      <c r="B34" t="s">
         <v>88</v>
       </c>
-      <c r="B34" t="s">
+      <c r="C34" t="s">
         <v>89</v>
-      </c>
-      <c r="C34" t="s">
-        <v>90</v>
       </c>
     </row>
     <row r="35" spans="1:3">
       <c r="A35" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="B35" t="s">
         <v>91</v>
@@ -1723,29 +1722,29 @@
     </row>
     <row r="36" spans="1:3">
       <c r="A36" t="s">
+        <v>90</v>
+      </c>
+      <c r="B36" t="s">
         <v>93</v>
       </c>
-      <c r="B36" t="s">
+      <c r="C36" t="s">
         <v>94</v>
-      </c>
-      <c r="C36" t="s">
-        <v>95</v>
       </c>
     </row>
     <row r="37" spans="1:3">
       <c r="A37" t="s">
+        <v>95</v>
+      </c>
+      <c r="B37" t="s">
         <v>96</v>
       </c>
-      <c r="B37" t="s">
+      <c r="C37" t="s">
         <v>97</v>
-      </c>
-      <c r="C37" t="s">
-        <v>98</v>
       </c>
     </row>
     <row r="38" spans="1:3">
       <c r="A38" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="B38" t="s">
         <v>99</v>
@@ -1756,18 +1755,18 @@
     </row>
     <row r="39" spans="1:3">
       <c r="A39" t="s">
+        <v>98</v>
+      </c>
+      <c r="B39" t="s">
         <v>101</v>
       </c>
-      <c r="B39" t="s">
+      <c r="C39" t="s">
         <v>102</v>
-      </c>
-      <c r="C39" t="s">
-        <v>103</v>
       </c>
     </row>
     <row r="40" spans="1:3">
       <c r="A40" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="B40" t="s">
         <v>104</v>
@@ -1778,24 +1777,35 @@
     </row>
     <row r="41" spans="1:3">
       <c r="A41" t="s">
+        <v>103</v>
+      </c>
+      <c r="B41" t="s">
         <v>106</v>
       </c>
-      <c r="B41" t="s">
+      <c r="C41" t="s">
         <v>107</v>
-      </c>
-      <c r="C41" t="s">
-        <v>108</v>
       </c>
     </row>
     <row r="42" spans="1:3">
       <c r="A42" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="B42" t="s">
         <v>109</v>
       </c>
       <c r="C42" t="s">
         <v>110</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3">
+      <c r="A43" t="s">
+        <v>108</v>
+      </c>
+      <c r="B43" t="s">
+        <v>111</v>
+      </c>
+      <c r="C43" t="s">
+        <v>112</v>
       </c>
     </row>
   </sheetData>

--- a/data/base_info.xlsx
+++ b/data/base_info.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="129" uniqueCount="113">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="131" uniqueCount="115">
   <si>
     <t>部门</t>
   </si>
@@ -354,6 +354,12 @@
   </si>
   <si>
     <t>程悦</t>
+  </si>
+  <si>
+    <t>新疆办事处技术部</t>
+  </si>
+  <si>
+    <t>刘治</t>
   </si>
 </sst>
 </file>
@@ -366,7 +372,7 @@
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="21">
+  <fonts count="22">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -383,6 +389,65 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FF3F3F3F"/>
@@ -391,11 +456,32 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -423,35 +509,6 @@
     </font>
     <font>
       <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="18"/>
       <color theme="3"/>
       <name val="宋体"/>
@@ -467,41 +524,11 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -512,20 +539,6 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -536,12 +549,78 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -554,13 +633,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -572,145 +645,85 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -727,6 +740,41 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -748,8 +796,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -792,51 +840,16 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="14" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -845,37 +858,34 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -884,100 +894,107 @@
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="2" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="11" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="11" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="15" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
   </cellXfs>
   <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -1324,10 +1341,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:C43"/>
+  <dimension ref="A1:C44"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E22" sqref="E22"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="H38" sqref="H38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="2"/>
@@ -1808,6 +1825,17 @@
         <v>112</v>
       </c>
     </row>
+    <row r="44" spans="1:3">
+      <c r="A44" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="B44" s="3">
+        <v>46</v>
+      </c>
+      <c r="C44" s="2" t="s">
+        <v>114</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
